--- a/code/Features.xlsx
+++ b/code/Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Bolle\Documents\Projects\KaggleHousePrices\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD765E63-25A7-43BD-A978-1DEABED79468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F6F99-0ED8-4063-9607-7A9FB72360CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D15921B-977F-4655-AEC1-E2D66D001972}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
-  <si>
-    <t>?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="129">
   <si>
     <t>Ordinal</t>
   </si>
@@ -55,9 +52,6 @@
     <t>Ordinal based on relative incomes</t>
   </si>
   <si>
-    <t>Over half of them are zero</t>
-  </si>
-  <si>
     <t>Po = 1, Fa = 2, TA = 3, Gd = 4, Ex = 5</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>Neighborhood</t>
   </si>
   <si>
-    <t>Condition1 and Condition2</t>
-  </si>
-  <si>
     <t>BldgType</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>RoofMatl</t>
   </si>
   <si>
-    <t>Exterior1st and Exterior2nd</t>
-  </si>
-  <si>
     <t>MasVnrType</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>ExterCond</t>
   </si>
   <si>
-    <t>Add a variable for presence of basement? for number of floors?</t>
-  </si>
-  <si>
     <t>BsmtFinSF1</t>
   </si>
   <si>
@@ -169,9 +154,6 @@
     <t>Fireplaces</t>
   </si>
   <si>
-    <t>Add a variable for presence of garage?</t>
-  </si>
-  <si>
     <t>GarageYrBlt</t>
   </si>
   <si>
@@ -199,9 +181,6 @@
     <t>YrSold</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>NA = 0, Po = 1, Fa = 2, TA = 3, Gd = 4, Ex = 5</t>
   </si>
   <si>
@@ -241,9 +220,6 @@
     <t>Electrical</t>
   </si>
   <si>
-    <t>What is this?</t>
-  </si>
-  <si>
     <t>GrLivArea</t>
   </si>
   <si>
@@ -259,18 +235,9 @@
     <t>BsmtFullBath</t>
   </si>
   <si>
-    <t>Try to include basement bedrooms?</t>
-  </si>
-  <si>
     <t>Bedroom</t>
   </si>
   <si>
-    <t>Is this ever not 1?</t>
-  </si>
-  <si>
-    <t>Include basement rooms?</t>
-  </si>
-  <si>
     <t>Kitchen</t>
   </si>
   <si>
@@ -310,9 +277,6 @@
     <t>GarageCond</t>
   </si>
   <si>
-    <t>Convert to ordinal? What if there's no driveway?</t>
-  </si>
-  <si>
     <t>PavedDrive</t>
   </si>
   <si>
@@ -340,9 +304,6 @@
     <t>SaleCondition</t>
   </si>
   <si>
-    <t>Log</t>
-  </si>
-  <si>
     <t>Transform</t>
   </si>
   <si>
@@ -376,18 +337,9 @@
     <t>Always 4, except a single house with 2</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Remove</t>
   </si>
   <si>
-    <t>Replace</t>
-  </si>
-  <si>
-    <t>Sum these 4 for a PorchSQ variable and log1p scale it</t>
-  </si>
-  <si>
     <t>Add a 3 category variable for NoPorch = 0, BasicPorch = 1, EnclosedPorch = 2</t>
   </si>
   <si>
@@ -400,9 +352,6 @@
     <t>NA=0,Elev=Gar2=Othr=Shed=TenC=1, and 1 when PoolQC is &gt; 0</t>
   </si>
   <si>
-    <t>The previous is slightly more correlated with SalePrice</t>
-  </si>
-  <si>
     <t>NA = 0, Grvl = 1, Pave = 1</t>
   </si>
   <si>
@@ -431,6 +380,48 @@
   </si>
   <si>
     <t>Keep the one with the better quality</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Condition2</t>
+  </si>
+  <si>
+    <t>Condition1</t>
+  </si>
+  <si>
+    <t>Exterior2nd</t>
+  </si>
+  <si>
+    <t>Exterior1st</t>
+  </si>
+  <si>
+    <t>Not much variation</t>
+  </si>
+  <si>
+    <t>I'll just use Exterior1st, since Exterior2nd is highly correlated with it</t>
+  </si>
+  <si>
+    <t>I'll just use Condition1 since Condition2 doesn't take that many values</t>
+  </si>
+  <si>
+    <t>FuseF = FuseA = FuseP = Mix = 0, SBrkr = NA = 1</t>
+  </si>
+  <si>
+    <t>0 = complicated, 1 = standard (with implicit imputation)</t>
+  </si>
+  <si>
+    <t>N = 0, P = 1, Y = 2</t>
+  </si>
+  <si>
+    <t>Log1p</t>
+  </si>
+  <si>
+    <t>Categorical, but with a reasonable ordinal interpretation</t>
+  </si>
+  <si>
+    <t>Sum these 4 for a PorchSF variable and log1p scale it</t>
   </si>
 </sst>
 </file>
@@ -454,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +464,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF33CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -486,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -494,12 +509,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FFCC3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -810,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753F9B7C-6641-497F-9CC4-B875C3B44228}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,766 +849,740 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>103</v>
+      <c r="A2" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="B48" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
+      <c r="A49" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>41</v>
+      <c r="A51" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
-      </c>
-      <c r="C51" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>42</v>
+      <c r="A52" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>75</v>
+      <c r="A53" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
-        <v>76</v>
+      <c r="A54" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
+      <c r="A55" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>80</v>
+      <c r="A56" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" t="s">
-        <v>81</v>
+      <c r="A57" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>43</v>
+      <c r="A58" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>55</v>
+      <c r="A59" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>44</v>
+      <c r="A60" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>45</v>
+      <c r="A62" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
-        <v>86</v>
+      <c r="A63" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>88</v>
+      <c r="A64" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" t="s">
-        <v>121</v>
+      <c r="A65" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>89</v>
+      <c r="A66" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>92</v>
+      <c r="A68" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>47</v>
+      <c r="A69" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>93</v>
+      <c r="A70" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>95</v>
+      <c r="A76" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>97</v>
+      <c r="A78" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C78" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>52</v>
+      <c r="A79" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>53</v>
+      <c r="A80" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>99</v>
+      <c r="A81" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>100</v>
+      <c r="A82" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
